--- a/web_scraper/processed_judgements_final/crl.a._531_2019.xlsx
+++ b/web_scraper/processed_judgements_final/crl.a._531_2019.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On May 23, 2007, a group of 10 accused, including appellants Muhammad Nawaz and Muhammad Ilyas, along with eight co-accused, attacked a village in Bhullay Banawal, Sheikhupura, Pakistan. * The accused were armed with firearms and had a common object to kill and injure the residents of the village. * During the attack, two people, Ghulam Mustafa and Noor Muhammad, were killed, and four others, Zeeshan, Ihsan, Rehmat Ali, and Qamar Shah, were seriously injured. * The accused were alleged to have committed murder, attempted murder, and terrorism, and created fear and insecurity among the local residents.   * The appellants/convicts were charged with the murder of two deceased persons. * The trial court framed charges against the appellants and other co-accused for the offences of "common object" under Sections 148/149 PPC. * The trial court convicted the appellants for murder, but ignored the fact that all the accused committed their respective overt acts in furtherance of their common object, and thus were part of an unlawful assembly. * The appellants were convicted on the basis of "individual liability" without a "definite finding" regarding their participation as members of the unlawful assembly and commission of offences in furtherance of their common intention.   The crime scenario involves a murder case where multiple accused individuals are charged with the offense of murder under Section 302 PPC. The investigation revealed that the murder was committed in furtherance of a common intention or common object, and the prosecution charges the accused with the offense under Section 302(b) PPC. The accused argue that the sentence should be based on individual liability, whereas the prosecution seeks to apply the provision of Section 302(b) PPC conjointly against the accused.  </t>
+          <t xml:space="preserve"> * On May 23, 2007, a dispute between two groups of people in Bhullay Banay Wal village, Punjab, Pakistan, turned violent. * The dispute was over a land issue, and the accused, including Muhammad Nawaz, Muhammad Ilyas, and others, were involved in the altercation. * The accused armed themselves with firearms and attacked the other group, led by Ghulam Mustafa, who was a councilor of the locality. * During the attack, Ghulam Mustafa and Noor Muhammad were killed, and several others, including Zeeshan, Ihsan, Rehmat Ali, and Qamar Shah, were injured. * The accused made reckless firing with their weapons and fled the scene, creating a sense of fear and harassment among the people of the locality.  **Charges:**  * The accused were charged with murder (Section 302 PPC), attempt to murder (Section 324 PPC), and terrorism (Section 7 of the Anti-Terrorism Act, 1997). * The charges were framed under Section 149 PPC, alleging that the accused formed an unlawful assembly with the common object of committing the crimes.   * The appellants and co-accused were charged with the murder of two deceased persons. * The Trial Court framed charges against them for the offences of "common object" falling under Sections 148/149 PPC, but later convicted them on the basis of "individual liability" without assigning a "definite finding" regarding their participation as members of an unlawful assembly. * The appellants were convicted of murder and sentenced accordingly.   * The crime involved a murder case where multiple accused individuals were charged with the offense under Section 302 PPC. * The accused were alleged to have committed the offense in furtherance of common intention or common object, or individually. * The investigation was conducted, and the Trial Court was responsible for evaluating the evidence and rendering a judgment.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * P.W.10 Irfan Ali, the complainant, who witnessed the attack and identified the accused. * Other prosecution witnesses were examined, but the number of witnesses is not specified in the judgment.   * None mentioned in the judgment.   No witnesses are mentioned in the judgment.  </t>
+          <t xml:space="preserve"> * The prosecution produced 18 witnesses, including the complainant, Irfan Ali, who witnessed the altercation and the injuries sustained by the victims. * The accused recorded their statements under Section 342 Cr.P.C., denying the allegations leveled against them.   * Not mentioned in the provided text.   * There is no mention of specific witnesses or their testimonies in the judgment.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The appellants, Muhammad Nawaz and Muhammad Ilyas, were convicted by the Anti-Terrorism Court-III, Lahore, for their roles in the attack. * The Trial Court found them guilty of murder (Section 302 PPC), attempted murder (Section 324 PPC), and terrorism (Section 7 ATA, 1997). * The Trial Court sentenced them to death on two counts each under Section 302/34 PPC and also directed them to pay compensation to the legal heirs of the deceased. * The co-accused, Zafar Iqbal and Altaf Hussain, were convicted and sentenced to 10 years' rigorous imprisonment (RI) each under Section 324/34 PPC. * The High Court maintained the conviction under Section 302/34 PPC but altered the sentence of death to imprisonment for life. * The High Court also acquitted all the accused under Section 148 PPC and set aside the conviction and sentences recorded against the co-accused, Sarfraz Anmad.  * The judgment is focused on the legal issues surrounding the application of Section 302 PPC, which deals with the punishment for qatl-e-amd (murder). * The court held that the trial court failed to give a "definite finding" regarding the applicability of Section 148/149 PPC to the co-accused, and thus the conviction and sentence recorded against the accused were beyond the scope of the law. * The court emphasized the importance of considering the "common object" and "common intention" of the accused in cases involving multiple accused persons. * The court also discussed the different categories of punishment under Section 302 PPC, including qisas (retaliation), tazir (chastisement), and imprisonment for a term which may extend to 25 years. * The court ultimately allowed the appeals and set aside the conviction and sentence recorded by the trial court, directing the trial court to re-examine the evidence and re-consider the charges against the accused in light of the legal principles discussed in the judgment.  The judgment sets aside the impugned judgments of both courts and remands the matter back to the Trial Court for a limited purpose. The Trial Court is directed to re-write the judgment on the basis of the existing judicial record within two months strictly in accordance with law and the guidelines given in Criminal Petition Nos. 1371 &amp; 1651-L of 2016. The judgment emphasizes the importance of giving a definite finding on the element of common intention or common object with reference to the substantive offense. If the Court concludes that the offense was committed in furtherance of common intention or common object, it should apply the provision of Section 302(b) PPC conjointly against the accused. However, if the Court finds that the elements of common intention and common object have not been established, each accused would be dealt with under the provisions of Section 302(c) PPC according to their own role and severity of allegations and would be sentenced accordingly. </t>
+          <t xml:space="preserve"> * The learned Trial Court convicted the appellants, Muhammad Nawaz, Muhammad Ilyas, and co-accused Sarfraz Ahmed, of murder (Section 302/34 PPC) and sentenced them to death. * The Trial Court also convicted co-accused Zafar Iqbal and Altaf Hussain of attempt to murder (Section 324/34 PPC) and sentenced them to 10 years RI each. * The Trial Court acquitted five co-accused, including Ghulam Muhammad, Imtiaz Anmad, Riaz Hussain, Mushtaq @ Ishaque, and Nawaz s/o Khan Muhammad, on the basis that the charge against them was not proved. * The High Court, in appeal, maintained the conviction under Section 302/34 PPC, but altered the sentence of death to imprisonment for life. * The High Court also acquitted all the accused under Section 148 PPC, although they were convicted by the Trial Court, and set aside the conviction and sentences recorded by the Trial Court against co-accused Sarfraz Ahmed.  * The Court of Appeal held that the Trial Court erred in convicting the appellants on the basis of "individual liability" without considering their participation as members of an unlawful assembly. * The Court applied the provisions of Section 302 PPC, which provides punishment for the commission of qatl-e-amd (murder). * The Court noted that the provision of Section 302(a) PPC is a distinct provision with different mode and manner of application, derived from the Islamic judicial system. * The Court held that the Trial Court failed to give a "definite finding" regarding the applicability of Section 302/148/149 PPC to the co-accused, and that the conviction and sentence recorded against the accused on the basis of individual liability was beyond the scope of law. * The Court allowed the appeals and set aside the conviction and sentence of the appellants. * The Court directed the Trial Court to re-examine the evidence and re-frame the charges against the appellants and co-accused, taking into account their participation as members of an unlawful assembly.  The basis of the decision is the application of Section 302 PPC, which provides punishment for the commission of qatl-e-amd (murder). The Court also considered the provisions of Section 299 PPC, which defines "qisas" (punishment by causing similar hurt at the same part of the body of the convict) and "ta'zir" (punishment other than qisas).  * The Trial Court was required to give a definite finding regarding the applicability of Section 34 PPC or Sections 148/149 PPC at the time of conclusion of the trial. * The Court held that any judgment that concludes the commission of an offense under Section 302(b) PPC in furtherance of common intention or common object but decides the case on the basis of individual liability would be in defiance of the intent and spirit of the law. * The Court also issued guidelines to the Trial Courts below, including: 	+ The Trial Court must evaluate the act committed in the circumstances to determine whether it was committed in furtherance of common intention or on the basis of individual liability. 	+ The Court must give a definite finding regarding the element of common intention or common object with reference to the substantive offense. 	+ If the Court reaches the conclusion that the offense committed is an individual liability, then the provision of Section 302(c) PPC would be applicable, and each accused would be dealt with according to their own role and severity of allegations. * The appeals were allowed, and the impugned judgments of both courts were set aside. The matter was remanded back to the Trial Court for a limited purpose to rewrite the judgment within two months strictly in accordance with the law and the guidelines given. </t>
         </is>
       </c>
     </row>
